--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="164">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,391 +49,427 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>ok</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>item</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>though</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>looked</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>hold</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>seems</t>
+    <t>better</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>better</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>got</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>expansion</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoys</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>everyone</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>game</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>book</t>
   </si>
   <si>
     <t>ages</t>
   </si>
   <si>
-    <t>book</t>
+    <t>children</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>grand</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
-    <t>games</t>
+    <t>daughter</t>
   </si>
   <si>
     <t>playing</t>
@@ -442,28 +478,25 @@
     <t>play</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>together</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>grandson</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gift</t>
   </si>
   <si>
     <t>year</t>
@@ -830,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -838,10 +871,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -899,13 +932,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -917,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -949,13 +982,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -967,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K4">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -991,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -999,13 +1032,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8450704225352113</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1017,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K5">
-        <v>0.8387096774193549</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1041,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1049,13 +1082,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1067,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K6">
-        <v>0.8307692307692308</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1091,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1099,13 +1132,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7454545454545455</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1117,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K7">
-        <v>0.78125</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1141,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1149,13 +1182,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1167,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K8">
-        <v>0.7358490566037735</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1191,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1199,13 +1232,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7364864864864865</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C9">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1217,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K9">
-        <v>0.6542324246771879</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>456</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>456</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1241,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>241</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1249,13 +1282,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.71875</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1267,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K10">
-        <v>0.6521739130434783</v>
+        <v>0.625</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1291,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1299,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7150537634408602</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C11">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1317,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K11">
-        <v>0.625</v>
+        <v>0.6212338593974175</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>433</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>433</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1341,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1349,13 +1382,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6296296296296297</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1367,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K12">
-        <v>0.625</v>
+        <v>0.6016597510373444</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1391,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1399,38 +1432,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13">
+        <v>0.5660377358490566</v>
+      </c>
+      <c r="L13">
         <v>30</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>30</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13">
-        <v>0.5705394190871369</v>
-      </c>
-      <c r="L13">
-        <v>275</v>
-      </c>
-      <c r="M13">
-        <v>275</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1441,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>207</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1449,13 +1482,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6190476190476191</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1467,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K14">
-        <v>0.5409836065573771</v>
+        <v>0.5361247947454844</v>
       </c>
       <c r="L14">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="M14">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1488,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1499,13 +1532,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6134453781512605</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1517,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K15">
-        <v>0.4892966360856269</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L15">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1541,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>167</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1549,13 +1582,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1567,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K16">
-        <v>0.4698795180722892</v>
+        <v>0.4220183486238532</v>
       </c>
       <c r="L16">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="M16">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1591,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>88</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1599,13 +1632,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.5625</v>
       </c>
       <c r="C17">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1617,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K17">
-        <v>0.4603174603174603</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L17">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M17">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1641,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1649,38 +1682,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5428571428571428</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C18">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18">
+        <v>0.4042553191489361</v>
+      </c>
+      <c r="L18">
         <v>19</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>19</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18">
-        <v>0.4416666666666667</v>
-      </c>
-      <c r="L18">
-        <v>53</v>
-      </c>
-      <c r="M18">
-        <v>53</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1691,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1699,13 +1732,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5275590551181102</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1717,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19">
-        <v>0.4339622641509434</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1741,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1749,13 +1782,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5185185185185185</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1767,19 +1800,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K20">
-        <v>0.3559322033898305</v>
+        <v>0.328125</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1791,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1799,13 +1832,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5180722891566265</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1817,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K21">
-        <v>0.3064516129032258</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="L21">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1841,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>129</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1849,13 +1882,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5172413793103449</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1867,31 +1900,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22">
-        <v>0.3046875</v>
+        <v>0.3</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1899,13 +1932,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5071090047393365</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1917,19 +1950,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K23">
-        <v>0.3015873015873016</v>
+        <v>0.3</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1941,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1949,13 +1982,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4921875</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1967,19 +2000,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K24">
-        <v>0.3006993006993007</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1991,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2020,16 +2053,16 @@
         <v>49</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K25">
-        <v>0.2786885245901639</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2041,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2049,13 +2082,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4603174603174603</v>
+        <v>0.4834123222748815</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2067,19 +2100,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K26">
-        <v>0.2735042735042735</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2091,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2099,13 +2132,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4473684210526316</v>
+        <v>0.4803149606299212</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2117,31 +2150,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K27">
-        <v>0.256</v>
+        <v>0.2822580645161291</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2149,13 +2182,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4444444444444444</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2167,19 +2200,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K28">
-        <v>0.248995983935743</v>
+        <v>0.28125</v>
       </c>
       <c r="L28">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2191,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>187</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2199,13 +2232,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4418604651162791</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2217,31 +2250,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K29">
-        <v>0.2398945518453427</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="L29">
-        <v>273</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>865</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2249,13 +2282,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4285714285714285</v>
+        <v>0.4328358208955224</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2267,31 +2300,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K30">
-        <v>0.2039106145251397</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L30">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="M30">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>285</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2299,13 +2332,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4181818181818182</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2317,19 +2350,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K31">
-        <v>0.1724137931034483</v>
+        <v>0.2570281124497992</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2341,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2349,13 +2382,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4081632653061225</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2367,31 +2400,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K32">
-        <v>0.1602605863192182</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="L32">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1289</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2399,13 +2432,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.405940594059406</v>
+        <v>0.400990099009901</v>
       </c>
       <c r="C33">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2417,31 +2450,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K33">
-        <v>0.1524064171122995</v>
+        <v>0.2262323943661972</v>
       </c>
       <c r="L33">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="M33">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>317</v>
+        <v>879</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2449,13 +2482,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4029850746268657</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2467,31 +2500,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K34">
-        <v>0.1379310344827586</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="L34">
         <v>16</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2499,13 +2532,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3846153846153846</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2517,19 +2550,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K35">
-        <v>0.1363636363636364</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2541,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>133</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2549,13 +2582,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.375</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2567,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K36">
-        <v>0.1206225680933852</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2591,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>226</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2599,13 +2632,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3707865168539326</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2617,31 +2650,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K37">
-        <v>0.1132075471698113</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N37">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>141</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2649,13 +2682,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3703703703703703</v>
+        <v>0.3195876288659794</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2667,19 +2700,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K38">
-        <v>0.1021671826625387</v>
+        <v>0.1487279843444227</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="N38">
         <v>0.97</v>
@@ -2691,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>290</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2699,13 +2732,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.359375</v>
+        <v>0.3125</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2717,31 +2750,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K39">
-        <v>0.09906291834002677</v>
+        <v>0.1448467966573816</v>
       </c>
       <c r="L39">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="M39">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>673</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2749,49 +2782,49 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3442622950819672</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K40">
-        <v>0.09688581314878893</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>261</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2799,13 +2832,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3265306122448979</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2817,31 +2850,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K41">
-        <v>0.08387096774193549</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N41">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="O41">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>284</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2849,49 +2882,49 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3247863247863248</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K42">
-        <v>0.07641196013289037</v>
+        <v>0.1179487179487179</v>
       </c>
       <c r="L42">
         <v>23</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>278</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2899,13 +2932,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3064516129032258</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2917,31 +2950,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K43">
-        <v>0.06810035842293907</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="O43">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>260</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2949,13 +2982,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3043478260869565</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C44">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2967,31 +3000,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K44">
-        <v>0.06735751295336788</v>
+        <v>0.1003460207612457</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N44">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0.28</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>360</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2999,13 +3032,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3041237113402062</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3017,31 +3050,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K45">
-        <v>0.0630841121495327</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>401</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3049,49 +3082,49 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.288659793814433</v>
+        <v>0.2773722627737226</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K46">
-        <v>0.06169296987087518</v>
+        <v>0.09765625</v>
       </c>
       <c r="L46">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N46">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0.16</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>654</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3099,49 +3132,49 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.28</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C47">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K47">
-        <v>0.05780346820809248</v>
+        <v>0.09666666666666666</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N47">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O47">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>326</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3149,13 +3182,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2721518987341772</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C48">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3167,31 +3200,31 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K48">
-        <v>0.04462474645030426</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N48">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="O48">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>471</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3199,13 +3232,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.27</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C49">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D49">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3217,31 +3250,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K49">
-        <v>0.04107142857142857</v>
+        <v>0.0856760374832664</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="M49">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="N49">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="O49">
-        <v>0.18</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>537</v>
+        <v>683</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3249,49 +3282,49 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2644873699851412</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="C50">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>495</v>
+        <v>45</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="K50">
-        <v>0.03496503496503497</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="L50">
         <v>15</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="O50">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>414</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3299,49 +3332,49 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2602739726027397</v>
+        <v>0.27</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E51">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="K51">
-        <v>0.03125</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N51">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="O51">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>651</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3349,13 +3382,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2531645569620253</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3367,31 +3400,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="K52">
-        <v>0.02462380300957592</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="N52">
-        <v>0.22</v>
+        <v>0.91</v>
       </c>
       <c r="O52">
-        <v>0.78</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>713</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3399,25 +3432,49 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2523364485981308</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C53">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>41</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K53">
+        <v>0.06104651162790697</v>
+      </c>
+      <c r="L53">
+        <v>21</v>
+      </c>
+      <c r="M53">
         <v>28</v>
       </c>
-      <c r="E53">
-        <v>0.04</v>
-      </c>
-      <c r="F53">
-        <v>0.96</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>80</v>
+      <c r="N53">
+        <v>0.75</v>
+      </c>
+      <c r="O53">
+        <v>0.25</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3425,25 +3482,49 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2467532467532468</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K54">
+        <v>0.06025824964131994</v>
+      </c>
+      <c r="L54">
+        <v>42</v>
+      </c>
+      <c r="M54">
+        <v>50</v>
+      </c>
+      <c r="N54">
+        <v>0.84</v>
+      </c>
+      <c r="O54">
+        <v>0.16</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>655</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3451,13 +3532,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2432432432432433</v>
+        <v>0.2462908011869436</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3469,7 +3550,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>56</v>
+        <v>508</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K55">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="L55">
+        <v>24</v>
+      </c>
+      <c r="M55">
+        <v>33</v>
+      </c>
+      <c r="N55">
+        <v>0.73</v>
+      </c>
+      <c r="O55">
+        <v>0.27</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3497,31 +3602,79 @@
       <c r="H56">
         <v>56</v>
       </c>
+      <c r="J56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K56">
+        <v>0.04960835509138381</v>
+      </c>
+      <c r="L56">
+        <v>19</v>
+      </c>
+      <c r="M56">
+        <v>32</v>
+      </c>
+      <c r="N56">
+        <v>0.59</v>
+      </c>
+      <c r="O56">
+        <v>0.41</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>364</v>
+      </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2228571428571429</v>
+        <v>0.2429906542056075</v>
       </c>
       <c r="C57">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D57">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>136</v>
+        <v>81</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K57">
+        <v>0.04591836734693878</v>
+      </c>
+      <c r="L57">
+        <v>18</v>
+      </c>
+      <c r="M57">
+        <v>60</v>
+      </c>
+      <c r="N57">
+        <v>0.3</v>
+      </c>
+      <c r="O57">
+        <v>0.7</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3529,25 +3682,49 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2206572769953052</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C58">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>166</v>
+        <v>74</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K58">
+        <v>0.04480651731160896</v>
+      </c>
+      <c r="L58">
+        <v>22</v>
+      </c>
+      <c r="M58">
+        <v>31</v>
+      </c>
+      <c r="N58">
+        <v>0.71</v>
+      </c>
+      <c r="O58">
+        <v>0.29</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3555,13 +3732,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2185430463576159</v>
+        <v>0.2219020172910663</v>
       </c>
       <c r="C59">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E59">
         <v>0.01</v>
@@ -3573,7 +3750,31 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>354</v>
+        <v>270</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K59">
+        <v>0.04285714285714286</v>
+      </c>
+      <c r="L59">
+        <v>24</v>
+      </c>
+      <c r="M59">
+        <v>29</v>
+      </c>
+      <c r="N59">
+        <v>0.83</v>
+      </c>
+      <c r="O59">
+        <v>0.17</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>536</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3581,13 +3782,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2183908045977012</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C60">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D60">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3599,7 +3800,31 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>272</v>
+        <v>143</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K60">
+        <v>0.04245283018867924</v>
+      </c>
+      <c r="L60">
+        <v>18</v>
+      </c>
+      <c r="M60">
+        <v>41</v>
+      </c>
+      <c r="N60">
+        <v>0.44</v>
+      </c>
+      <c r="O60">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3627,19 +3852,43 @@
       <c r="H61">
         <v>123</v>
       </c>
+      <c r="J61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K61">
+        <v>0.03177257525083612</v>
+      </c>
+      <c r="L61">
+        <v>19</v>
+      </c>
+      <c r="M61">
+        <v>76</v>
+      </c>
+      <c r="N61">
+        <v>0.25</v>
+      </c>
+      <c r="O61">
+        <v>0.75</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>579</v>
+      </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2164948453608248</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3651,7 +3900,31 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K62">
+        <v>0.02658788774002954</v>
+      </c>
+      <c r="L62">
+        <v>18</v>
+      </c>
+      <c r="M62">
+        <v>33</v>
+      </c>
+      <c r="N62">
+        <v>0.55</v>
+      </c>
+      <c r="O62">
+        <v>0.45</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>659</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3659,25 +3932,49 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1979166666666667</v>
+        <v>0.215962441314554</v>
       </c>
       <c r="C63">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D63">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>154</v>
+        <v>167</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63">
+        <v>0.0221606648199446</v>
+      </c>
+      <c r="L63">
+        <v>16</v>
+      </c>
+      <c r="M63">
+        <v>88</v>
+      </c>
+      <c r="N63">
+        <v>0.18</v>
+      </c>
+      <c r="O63">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>706</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3685,25 +3982,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1951219512195122</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>66</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3711,25 +4008,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1919191919191919</v>
+        <v>0.203125</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D65">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3737,25 +4034,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1889763779527559</v>
+        <v>0.2</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>103</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3763,25 +4060,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.188034188034188</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E67">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3789,25 +4086,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1868131868131868</v>
+        <v>0.1977777777777778</v>
       </c>
       <c r="C68">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>74</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3815,13 +4112,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1868131868131868</v>
+        <v>0.1841359773371105</v>
       </c>
       <c r="C69">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D69">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E69">
         <v>0.03</v>
@@ -3833,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>148</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3841,13 +4138,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1857142857142857</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3859,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3867,25 +4164,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1810699588477366</v>
+        <v>0.1673469387755102</v>
       </c>
       <c r="C71">
+        <v>41</v>
+      </c>
+      <c r="D71">
         <v>44</v>
       </c>
-      <c r="D71">
-        <v>49</v>
-      </c>
       <c r="E71">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F71">
-        <v>0.9</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3893,25 +4190,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1780104712041885</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C72">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D72">
         <v>34</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3919,25 +4216,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1660377358490566</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C73">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D73">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E73">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>221</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3945,25 +4242,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1534090909090909</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C74">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D74">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="E74">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>298</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3971,25 +4268,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1461538461538462</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3997,13 +4294,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1455696202531646</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="C76">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4015,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4023,25 +4320,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1372549019607843</v>
+        <v>0.1412742382271468</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D77">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E77">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F77">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>132</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4049,25 +4346,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1352941176470588</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4075,25 +4372,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1297297297297297</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="C79">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D79">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E79">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="F79">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4101,25 +4398,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1273885350318471</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="C80">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E80">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F80">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>274</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4127,25 +4424,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1263736263736264</v>
+        <v>0.1299638989169675</v>
       </c>
       <c r="C81">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D81">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E81">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F81">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>318</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4153,13 +4450,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1230769230769231</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="C82">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E82">
         <v>0.06</v>
@@ -4171,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>114</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4179,25 +4476,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1213483146067416</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="C83">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>391</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4205,25 +4502,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1149425287356322</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D84">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E84">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F84">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>154</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4231,25 +4528,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1139896373056995</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="C85">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D85">
         <v>25</v>
       </c>
       <c r="E85">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="F85">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4257,25 +4554,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.111913357400722</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C86">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D86">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E86">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F86">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>246</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4283,25 +4580,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1064891846921797</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="C87">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D87">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E87">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F87">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>537</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4309,25 +4606,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1043956043956044</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="C88">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E88">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4335,25 +4632,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09004739336492891</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="C89">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D89">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E89">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="F89">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4361,25 +4658,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08254716981132075</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="C90">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E90">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F90">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>389</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4387,25 +4684,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08166409861325115</v>
+        <v>0.09752066115702479</v>
       </c>
       <c r="C91">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D91">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E91">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F91">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>596</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4413,25 +4710,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08118556701030928</v>
+        <v>0.09254498714652956</v>
       </c>
       <c r="C92">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D92">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E92">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="F92">
-        <v>0.78</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4439,25 +4736,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08018867924528301</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93">
         <v>17</v>
       </c>
-      <c r="D93">
-        <v>23</v>
-      </c>
       <c r="E93">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="F93">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>195</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4465,25 +4762,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.06267806267806268</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="C94">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D94">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>329</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4491,25 +4788,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05263157894736842</v>
+        <v>0.06017191977077364</v>
       </c>
       <c r="C95">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D95">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E95">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="F95">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>468</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4517,25 +4814,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.05194805194805195</v>
+        <v>0.0589622641509434</v>
       </c>
       <c r="C96">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D96">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E96">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="F96">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>438</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4543,25 +4840,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.04166666666666666</v>
+        <v>0.05361305361305362</v>
       </c>
       <c r="C97">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D97">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E97">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F97">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4569,25 +4866,77 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.02980625931445604</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="C98">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D98">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E98">
-        <v>0.51</v>
+        <v>0.29</v>
       </c>
       <c r="F98">
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>651</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.03018108651911469</v>
+      </c>
+      <c r="C99">
+        <v>15</v>
+      </c>
+      <c r="D99">
+        <v>22</v>
+      </c>
+      <c r="E99">
+        <v>0.32</v>
+      </c>
+      <c r="F99">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.02225519287833828</v>
+      </c>
+      <c r="C100">
+        <v>15</v>
+      </c>
+      <c r="D100">
+        <v>33</v>
+      </c>
+      <c r="E100">
+        <v>0.55</v>
+      </c>
+      <c r="F100">
+        <v>0.45</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>659</v>
       </c>
     </row>
   </sheetData>
